--- a/assets/development/WeaponsForTiming.xlsx
+++ b/assets/development/WeaponsForTiming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\MISC\EldenRingAHK\assets\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDEE05C-E798-45B8-803C-CBEC2844C788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DB1929-6694-46BA-B9D9-256EDFC81784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B547C3A7-69B0-4C87-9F5E-776FF7D83FDA}"/>
   </bookViews>
@@ -35,131 +35,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="303">
   <si>
     <t xml:space="preserve">Weapon </t>
   </si>
   <si>
-    <t>Str/Dex/</t>
-  </si>
-  <si>
-    <t>Int/Fth/Arc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Axe IconBattle Axe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highland Axe IconHighland Axe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand Axe IconHand Axe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Cleaver IconIron Cleaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icerind Hatchet IconIcerind Hatchet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripple Blade IconRipple Blade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warped Axe IconWarped Axe </t>
-  </si>
-  <si>
     <t xml:space="preserve">RosusRosus' Axe </t>
   </si>
   <si>
-    <t xml:space="preserve">Stormhawk Axe IconStormhawk Axe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacrificial Axe IconSacrificial Axe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forked Hatchet IconForked Hatchet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jawbone Axe IconJawbone Axe </t>
-  </si>
-  <si>
     <t xml:space="preserve">CelebrantCelebrant's Cleaver </t>
   </si>
   <si>
     <t>Claws</t>
   </si>
   <si>
-    <t xml:space="preserve">Hookclaws IconHookclaws </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodhound Claws IconBloodhound Claws </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raptor Talons IconRaptor Talons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venomous Fang IconVenomous Fang </t>
-  </si>
-  <si>
     <t>Colossal Sword</t>
   </si>
   <si>
-    <t xml:space="preserve">Grafted Blade Greatsword IconGrafted Blade Greatsword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greatsword IconGreatsword </t>
-  </si>
-  <si>
     <t xml:space="preserve">TrollTroll's Golden Sword </t>
   </si>
   <si>
     <t xml:space="preserve">Troll KnightTroll Knight's Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Ruins Greatsword IconRuins Greatsword </t>
-  </si>
-  <si>
     <t xml:space="preserve">MalikethMaliketh's Black Blade </t>
   </si>
   <si>
-    <t>HOLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royal Greatsword IconRoyal Greatsword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starscourge Greatsword IconStarscourge Greatsword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zweihander IconZweihander </t>
-  </si>
-  <si>
     <t>Curved Greatsword</t>
   </si>
   <si>
     <t xml:space="preserve">BloodhoundBloodhound's Fang </t>
   </si>
   <si>
-    <t xml:space="preserve">Dismounter IconDismounter </t>
-  </si>
-  <si>
     <t xml:space="preserve">Magma WyrmMagma Wyrm's Scalesword </t>
   </si>
   <si>
-    <t>FIRE</t>
-  </si>
-  <si>
     <t xml:space="preserve">BeastmanBeastman's Cleaver </t>
   </si>
   <si>
-    <t xml:space="preserve">Zamor Curved Sword IconZamor Curved Sword </t>
-  </si>
-  <si>
     <t xml:space="preserve">MorgottMorgott's Cursed Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Omen Cleaver IconOmen Cleaver </t>
-  </si>
-  <si>
     <t xml:space="preserve">MonkMonk's Flameblade </t>
   </si>
   <si>
@@ -169,177 +85,48 @@
     <t>Curved Swords</t>
   </si>
   <si>
-    <t xml:space="preserve">Scimitar IconScimitar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falchion IconFalchion </t>
-  </si>
-  <si>
     <t xml:space="preserve">Serpent-GodSerpent-God's Curved Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Nox Flowing Sword IconNox Flowing Sword </t>
-  </si>
-  <si>
     <t xml:space="preserve">ScavengerScavenger's Curved Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Shotel IconShotel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowing Curved Sword IconFlowing Curved Sword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse Shotel IconEclipse Shotel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wing of Astel IconWing of Astel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shamshir IconShamshir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossmesser IconGrossmesser </t>
-  </si>
-  <si>
     <t xml:space="preserve">BanditBandit's Curved Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Mantis Blade IconMantis Blade </t>
-  </si>
-  <si>
     <t xml:space="preserve">BeastmanBeastman's Curved Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Magma Blade IconMagma Blade </t>
-  </si>
-  <si>
     <t>Daggers</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduvia IconReduvia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dagger IconDagger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misericorde IconMisericorde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erdsteel Dagger IconErdsteel Dagger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Knife IconGreat Knife </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wakizashi IconWakizashi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Knife IconBlack Knife </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Knife IconCrystal Knife </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivory Sickle IconIvory Sickle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blade of Calling IconBlade of Calling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glintstone Kris IconGlintstone Kris </t>
-  </si>
-  <si>
     <t xml:space="preserve">ScorpionScorpion's Stinger </t>
   </si>
   <si>
-    <t xml:space="preserve">Parrying Dagger IconParrying Dagger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodstained Dagger IconBloodstained Dagger </t>
-  </si>
-  <si>
     <t xml:space="preserve">CelebrantCelebrant's Sickle </t>
   </si>
   <si>
-    <t xml:space="preserve">Cinquedea IconCinquedea </t>
-  </si>
-  <si>
     <t>Fists</t>
   </si>
   <si>
-    <t xml:space="preserve">Cipher Pata IconCipher Pata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafted Dragon IconGrafted Dragon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caestus IconCaestus </t>
-  </si>
-  <si>
     <t xml:space="preserve">VeteranVeteran's Prosthesis </t>
   </si>
   <si>
-    <t>LGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiked Caestus IconSpiked Caestus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinging Bone IconClinging Bone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Ball IconIron Ball </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Fist IconStar Fist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katar IconKatar </t>
-  </si>
-  <si>
     <t>Flails</t>
   </si>
   <si>
-    <t xml:space="preserve">Nightrider Flail IconNightrider Flail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flail IconFlail </t>
-  </si>
-  <si>
     <t xml:space="preserve">BastardBastard's Star </t>
   </si>
   <si>
-    <t xml:space="preserve">Chainlink Flail IconChainlink Flail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Heads IconFamily Heads </t>
-  </si>
-  <si>
     <t>Glintstone Staves</t>
   </si>
   <si>
-    <t xml:space="preserve">Carian Glintstone Staff IconCarian Glintstone Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glintstone Staff IconGlintstone Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carian Regal Scepter IconCarian Regal Scepter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academy Glintstone Staff IconAcademy Glintstone Staff </t>
-  </si>
-  <si>
     <t xml:space="preserve">AzurAzur's Glintstone Staff </t>
   </si>
   <si>
     <t xml:space="preserve">LusatLusat's Glinstone Staff </t>
   </si>
   <si>
-    <t xml:space="preserve">Staff of Loss IconStaff of Loss </t>
-  </si>
-  <si>
     <t xml:space="preserve">AstrologerAstrologer's Staff </t>
   </si>
   <si>
@@ -349,33 +136,9 @@
     <t xml:space="preserve">Demi-Human QueenDemi-Human Queen's Staff </t>
   </si>
   <si>
-    <t xml:space="preserve">Gelmir Glintstone Staff IconGelmir Glintstone Staff </t>
-  </si>
-  <si>
     <t xml:space="preserve">DiggerDigger's Staff </t>
   </si>
   <si>
-    <t xml:space="preserve">Carian Glintblade Staff IconCarian Glintblade Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albinauric Staff IconAlbinauric Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Staff IconCrystal Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotten Crystal Staff IconRotten Crystal Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff of the Guilty IconStaff of the Guilty </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lance IconLance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treespear IconTreespear </t>
-  </si>
-  <si>
     <t xml:space="preserve">SiluriaSiluria's Tree </t>
   </si>
   <si>
@@ -385,66 +148,30 @@
     <t xml:space="preserve">MohgwynMohgwyn's Sacred Spear </t>
   </si>
   <si>
-    <t xml:space="preserve">Serpent-Hunter IconSerpent-Hunter </t>
-  </si>
-  <si>
     <t>Greataxe</t>
   </si>
   <si>
-    <t xml:space="preserve">Greataxe IconGreataxe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crescent Moon Axe IconCrescent Moon Axe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axe of Godrick IconAxe of Godrick </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Omenkiller Cleaver IconGreat Omenkiller Cleaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rusted Anchor IconRusted Anchor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butchering Knife IconButchering Knife </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winged Greathorn IconWinged Greathorn </t>
-  </si>
-  <si>
     <t xml:space="preserve">GargoyleGargoyle's Black Axe </t>
   </si>
   <si>
     <t xml:space="preserve">GargoyleGargoyle's Great Axe </t>
   </si>
   <si>
-    <t xml:space="preserve">Longhaft Axe IconLonghaft Axe </t>
-  </si>
-  <si>
     <t xml:space="preserve">ExecutionerExecutioner's Greataxe </t>
   </si>
   <si>
     <t>Greatswords</t>
   </si>
   <si>
-    <t xml:space="preserve">Bastard Sword IconBastard Sword </t>
-  </si>
-  <si>
     <t xml:space="preserve">OrdovisOrdovis' Greatsword </t>
   </si>
   <si>
-    <t xml:space="preserve">Claymore IconClaymore </t>
-  </si>
-  <si>
     <t xml:space="preserve">LordswornLordsworn's Greatsword </t>
   </si>
   <si>
     <t xml:space="preserve">Banished KnightBanished Knight's Greatsword </t>
   </si>
   <si>
-    <t xml:space="preserve">Flamberge IconFlamberge </t>
-  </si>
-  <si>
     <t xml:space="preserve">GodslayerGodslayer's Greatsword </t>
   </si>
   <si>
@@ -454,75 +181,33 @@
     <t xml:space="preserve">GargoyleGargoyle's Greatsword </t>
   </si>
   <si>
-    <t xml:space="preserve">Dark Moon Greatsword IconDark Moon Greatsword </t>
-  </si>
-  <si>
     <t xml:space="preserve">DeathDeath's Poker </t>
   </si>
   <si>
-    <t xml:space="preserve">Inseparable Sword IconInseparable Sword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blasphemous Blade IconBlasphemous Blade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacred Relic Sword IconSacred Relic Sword </t>
-  </si>
-  <si>
     <t xml:space="preserve">Marais ExecutionerMarais Executioner's Sword </t>
   </si>
   <si>
     <t xml:space="preserve">HelphenHelphen's Steeple </t>
   </si>
   <si>
-    <t xml:space="preserve">Golden Order Greatsword IconGolden Order Greatsword </t>
-  </si>
-  <si>
     <t xml:space="preserve">Alabaster LordAlabaster Lord's Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Iron Greatsword IconIron Greatsword </t>
-  </si>
-  <si>
     <t xml:space="preserve">KnightKnight's Greatsword </t>
   </si>
   <si>
-    <t xml:space="preserve">Forked Greatsword IconForked Greatsword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sword of Milos IconSword of Milos </t>
-  </si>
-  <si>
     <t>Halberd</t>
   </si>
   <si>
-    <t xml:space="preserve">Golden Halberd IconGolden Halberd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halberd IconHalberd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulgar Militia Saw IconVulgar Militia Saw </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulgar Militia Shotel IconVulgar Militia Shotel </t>
-  </si>
-  <si>
     <t xml:space="preserve">CommanderCommander's Standard </t>
   </si>
   <si>
     <t xml:space="preserve">GargoyleGargoyle's Black Halberd </t>
   </si>
   <si>
-    <t xml:space="preserve">Lucerne IconLucerne </t>
-  </si>
-  <si>
     <t xml:space="preserve">PestPest's Glaive </t>
   </si>
   <si>
-    <t xml:space="preserve">Dragon Halberd IconDragon Halberd </t>
-  </si>
-  <si>
     <t xml:space="preserve">GuardianGuardian's Swordspear </t>
   </si>
   <si>
@@ -532,27 +217,6 @@
     <t xml:space="preserve">LorettaLoretta's War Sickle </t>
   </si>
   <si>
-    <t xml:space="preserve">Nightrider Glaive IconNightrider Glaive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripple Crescent Halberd IconRipple Crescent Halberd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glaive IconGlaive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club IconClub </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mace IconMace </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warpick IconWarpick </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morning Star IconMorning Star </t>
-  </si>
-  <si>
     <t xml:space="preserve">MarikaMarika's Hammer </t>
   </si>
   <si>
@@ -562,261 +226,69 @@
     <t xml:space="preserve">VarreVarre's Bouquet </t>
   </si>
   <si>
-    <t xml:space="preserve">Scepter of the All-Knowing IconScepter of the All-Knowing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curved Club IconCurved Club </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiked Club IconSpiked Club </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stone Club IconStone Club </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hammer IconHammer </t>
-  </si>
-  <si>
     <t xml:space="preserve">MonkMonk's Flamemace </t>
   </si>
   <si>
-    <t xml:space="preserve">Nox Flowing Hammer IconNox Flowing Hammer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ringed Finger IconRinged Finger </t>
-  </si>
-  <si>
     <t>Katanas</t>
   </si>
   <si>
-    <t xml:space="preserve">Dragonscale Blade IconDragonscale Blade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uchigatana IconUchigatana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moonveil IconMoonveil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meteoric Ore Blade IconMeteoric Ore Blade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagakiba IconNagakiba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serpentbone Blade IconSerpentbone Blade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand of Malenia IconHand of Malenia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rivers of Blood IconRivers of Blood </t>
-  </si>
-  <si>
-    <t>List of Katanas</t>
-  </si>
-  <si>
     <t>Reapers</t>
   </si>
   <si>
-    <t xml:space="preserve">Winged Scythe IconWinged Scythe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scythe IconScythe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halo Scythe IconHalo Scythe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grave Scythe IconGrave Scythe </t>
-  </si>
-  <si>
     <t>Sacred Seals</t>
   </si>
   <si>
-    <t xml:space="preserve">Clawmark Seal IconClawmark Seal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godslayer Seal IconGodslayer Seal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finger Seal IconFinger Seal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Order Seal IconGolden Order Seal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Communion Seal IconDragon Communion Seal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erdtree Seal IconErdtree Seal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravel Stone Seal IconGravel Stone Seal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frenzied Flame Seal IconFrenzied Flame Seal </t>
-  </si>
-  <si>
     <t>Spears</t>
   </si>
   <si>
-    <t xml:space="preserve">Short Spear IconShort Spear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torchpole IconTorchpole </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pike IconPike </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-Naginata IconCross-Naginata </t>
-  </si>
-  <si>
     <t xml:space="preserve">InquisitorInquisitor's Girandole </t>
   </si>
   <si>
-    <t xml:space="preserve">Death Ritual Spear IconDeath Ritual Spear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolt of Gransax IconBolt of Gransax </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Spear IconIron Spear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partisan IconPartisan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiked Spear IconSpiked Spear </t>
-  </si>
-  <si>
     <t xml:space="preserve">ClaymanClayman's Harpoon </t>
   </si>
   <si>
     <t xml:space="preserve">CelebrantCelebrant's Rib-Rake </t>
   </si>
   <si>
-    <t xml:space="preserve">Crystal Spear IconCrystal Spear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotten Crystal Spear IconRotten Crystal Spear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleanrot Spear IconCleanrot Spear </t>
-  </si>
-  <si>
     <t>Straight Swords</t>
   </si>
   <si>
-    <t xml:space="preserve">Longsword IconLongsword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ornamental Straight Sword IconOrnamental Straight Sword </t>
-  </si>
-  <si>
     <t xml:space="preserve">LordswornLordsworn's Straight Sword </t>
   </si>
   <si>
     <t xml:space="preserve">WarhawkWarhawk's Talon </t>
   </si>
   <si>
-    <t xml:space="preserve">Weathered Straight Sword IconWeathered Straight Sword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Sword IconCrystal Sword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regalia of Eochaid IconRegalia of Eochaid </t>
-  </si>
-  <si>
     <t xml:space="preserve">Carian KnightCarian Knight's Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Lazuli Glintstone Sword IconLazuli Glintstone Sword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sword of Night and Flame IconSword of Night and Flame </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broadsword IconBroadsword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Epitaph IconGolden Epitaph </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sword of St. Trina IconSword of St. Trina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotten Crystal Sword IconRotten Crystal Sword </t>
-  </si>
-  <si>
     <t xml:space="preserve">Miquellan KnightMiquellan Knight's Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Short Sword IconShort Sword </t>
-  </si>
-  <si>
     <t xml:space="preserve">NobleNoble's Slender Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Cane Sword IconCane Sword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapier IconRapier </t>
-  </si>
-  <si>
     <t xml:space="preserve">RogierRogier's Rapier+8 </t>
   </si>
   <si>
-    <t xml:space="preserve">Estoc IconEstoc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antspur Rapier IconAntspur Rapier </t>
-  </si>
-  <si>
     <t xml:space="preserve">NobleNoble's Estoc </t>
   </si>
   <si>
     <t xml:space="preserve">Cleanrot KnightCleanrot Knight's Sword </t>
   </si>
   <si>
-    <t xml:space="preserve">Frozen Needle IconFrozen Needle </t>
-  </si>
-  <si>
     <t>Torches</t>
   </si>
   <si>
-    <t xml:space="preserve">Torch IconTorch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel-Wire Torch IconSteel-Wire Torch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast-Repellent Torch IconBeast-Repellent Torch </t>
-  </si>
-  <si>
     <t xml:space="preserve">St. TrinaSt. Trina's Torch </t>
   </si>
   <si>
     <t xml:space="preserve">SentrySentry's Torch </t>
   </si>
   <si>
-    <t xml:space="preserve">Ghostflame Torch IconGhostflame Torch </t>
-  </si>
-  <si>
     <t>Twinblades</t>
   </si>
   <si>
-    <t xml:space="preserve">Twinblade IconTwinblade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twinned Knight Swords IconTwinned Knight Swords </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godskin Peeler IconGodskin Peeler </t>
-  </si>
-  <si>
     <t xml:space="preserve">EleonoraEleonora's Poleblade </t>
   </si>
   <si>
@@ -829,132 +301,48 @@
     <t>Colossal Weapon</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Club IconGreat Club </t>
-  </si>
-  <si>
     <t xml:space="preserve">WatchdogWatchdog's Staff </t>
   </si>
   <si>
     <t xml:space="preserve">TrollTroll's Hammer </t>
   </si>
   <si>
-    <t xml:space="preserve">Staff of the Avatar IconStaff of the Avatar </t>
-  </si>
-  <si>
     <t xml:space="preserve">GhizaGhiza's Wheel </t>
   </si>
   <si>
-    <t xml:space="preserve">Fallingstar Beast Jaw IconFallingstar Beast Jaw </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axe of Godfrey IconAxe of Godfrey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Greatclaw IconDragon Greatclaw </t>
-  </si>
-  <si>
     <t xml:space="preserve">GolemGolem's Halberd </t>
   </si>
   <si>
-    <t xml:space="preserve">Rotten Staff IconRotten Staff </t>
-  </si>
-  <si>
     <t xml:space="preserve">PrelatePrelate's Inferno Crozier </t>
   </si>
   <si>
-    <t xml:space="preserve">Giant-Crusher IconGiant-Crusher </t>
-  </si>
-  <si>
     <t xml:space="preserve">DevourerDevourer's Scepter </t>
   </si>
   <si>
-    <t xml:space="preserve">Duelist Greataxe IconDuelist Greataxe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotten Greataxe IconRotten Greataxe </t>
-  </si>
-  <si>
     <t xml:space="preserve">EnvoyEnvoy's Greathorn </t>
   </si>
   <si>
-    <t>List of All Colossal Weapon Weapons</t>
-  </si>
-  <si>
     <t>Great Hammers</t>
   </si>
   <si>
-    <t xml:space="preserve">Battle Hammer IconBattle Hammer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brick Hammer IconBrick Hammer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large Club IconLarge Club </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Stars IconGreat Stars </t>
-  </si>
-  <si>
     <t xml:space="preserve">CelebrantCelebrant's Skull </t>
   </si>
   <si>
-    <t xml:space="preserve">Great Mace IconGreat Mace </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greathorn Hammer IconGreathorn Hammer </t>
-  </si>
-  <si>
     <t xml:space="preserve">EnvoyEnvoy's Long Horn </t>
   </si>
   <si>
-    <t xml:space="preserve">Beastclaw Greathammer IconBeastclaw Greathammer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotten Battle Hammer IconRotten Battle Hammer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cranial Vessel Candlestand IconCranial Vessel Candlestand </t>
-  </si>
-  <si>
-    <t>List of All Great Hammer Weapons</t>
-  </si>
-  <si>
     <t>Whip</t>
   </si>
   <si>
-    <t xml:space="preserve">Urumi IconUrumi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whip IconWhip </t>
-  </si>
-  <si>
     <t xml:space="preserve">GiantGiant's Red Braid </t>
   </si>
   <si>
     <t xml:space="preserve">HoslowHoslow's Petal Whip </t>
   </si>
   <si>
-    <t xml:space="preserve">Magma Whip Candlestick IconMagma Whip Candlestick </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorned Whip IconThorned Whip </t>
-  </si>
-  <si>
-    <t>List of All Whip Weapons</t>
-  </si>
-  <si>
     <t>Heavy Thrusting Swords</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Epee IconGreat Epee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloody Helice IconBloody Helice </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godskin Stitcher IconGodskin Stitcher </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dragon KingDragon King's Cragblade </t>
   </si>
   <si>
@@ -971,6 +359,591 @@
   </si>
   <si>
     <t>Rapier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highland Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Cleaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icerind Hatchet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripple Blade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warped Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormhawk Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacrificial Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forked Hatchet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawbone Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hookclaws </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodhound Claws </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raptor Talons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venomous Fang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafted Blade Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruins Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starscourge Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zweihander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dismounter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamor Curved Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omen Cleaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scimitar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falchion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nox Flowing Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowing Curved Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse Shotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wing of Astel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamshir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grossmesser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantis Blade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magma Blade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagger </t>
+  </si>
+  <si>
+    <t>Miser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdsteel Dagger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Knife </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wakizashi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Knife </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Knife </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Sickle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade of Calling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glintstone Kris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parrying Dagger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodstained Dagger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinquedea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cipher Pata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafted Dragon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caestus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiked Caestus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinging Bone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Fist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightrider Flail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chainlink Flail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Heads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carian Glintstone Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glintstone Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carian Regal Scepter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy Glintstone Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff of Loss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelmir Glintstone Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carian Glintblade Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albinauric Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotten Crystal Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff of the Guilty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treespear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serpent-Hunter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greataxe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescent Moon Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axe of Godrick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Omenkiller Cleaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rusted Anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butchering Knife </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winged Greathorn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longhaft Axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastard Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claymore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flamberge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Moon Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inseparable Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blasphemous Blade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Relic Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Order Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forked Greatsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword of Milos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Halberd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halberd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulgar Militia Saw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulgar Militia Shotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucerne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Halberd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightrider Glaive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripple Crescent Halberd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warpick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning Star </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scepter of the All-Knowing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curved Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiked Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nox Flowing Hammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ringed Finger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragonscale Blade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uchigatana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moonveil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteoric Ore Blade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagakiba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serpentbone Blade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand of Malenia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivers of Blood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winged Scythe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scythe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halo Scythe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grave Scythe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clawmark Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godslayer Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finger Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Order Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Communion Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdtree Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravel Stone Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frenzied Flame Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Spear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torchpole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pike </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-Naginata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death Ritual Spear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt of Gransax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Spear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partisan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiked Spear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Spear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotten Crystal Spear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleanrot Spear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornamental Straight Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weathered Straight Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regalia of Eochaid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lazuli Glintstone Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword of Night and Flame </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadsword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Epitaph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword of St. Trina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotten Crystal Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cane Sword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antspur Rapier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen Needle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel-Wire Torch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast-Repellent Torch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostflame Torch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twinblade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twinned Knight Swords </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godskin Peeler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff of the Avatar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallingstar Beast Jaw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axe of Godfrey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Greatclaw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotten Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant-Crusher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duelist Greataxe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotten Greataxe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Hammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brick Hammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Stars </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Mace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greathorn Hammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beastclaw Greathammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotten Battle Hammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cranial Vessel Candlestand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urumi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magma Whip Candlestick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorned Whip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Epee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloody Helice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godskin Stitcher </t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28B36EC-9D4E-4933-B2ED-12B52F928DA0}">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,15 +1312,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>85</v>
@@ -1355,10 +1328,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -1366,10 +1339,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>85</v>
@@ -1377,10 +1350,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -1388,10 +1361,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>85</v>
@@ -1399,10 +1372,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>85</v>
@@ -1410,10 +1383,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>85</v>
@@ -1421,10 +1394,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>85</v>
@@ -1432,10 +1405,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>85</v>
@@ -1443,10 +1416,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>85</v>
@@ -1454,10 +1427,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>85</v>
@@ -1465,10 +1438,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C13">
         <v>85</v>
@@ -1476,10 +1449,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>85</v>
@@ -1487,10 +1460,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C16">
         <v>95</v>
@@ -1498,10 +1471,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="C17">
         <v>95</v>
@@ -1509,10 +1482,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <v>95</v>
@@ -1520,10 +1493,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="C19">
         <v>95</v>
@@ -1531,10 +1504,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>37</v>
@@ -1542,10 +1515,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C22">
         <v>37</v>
@@ -1553,10 +1526,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>37</v>
@@ -1564,10 +1537,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>37</v>
@@ -1575,10 +1548,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="C25">
         <v>37</v>
@@ -1586,10 +1559,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>37</v>
@@ -1597,10 +1570,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="C27">
         <v>37</v>
@@ -1608,10 +1581,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C28">
         <v>37</v>
@@ -1619,10 +1592,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C29">
         <v>37</v>
@@ -1630,10 +1603,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>52</v>
@@ -1641,10 +1614,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>52</v>
@@ -1652,10 +1625,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>52</v>
@@ -1663,10 +1636,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>52</v>
@@ -1674,10 +1647,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C35">
         <v>52</v>
@@ -1685,10 +1658,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>52</v>
@@ -1696,10 +1669,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>52</v>
@@ -1707,10 +1680,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>52</v>
@@ -1718,10 +1691,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>52</v>
@@ -1729,10 +1702,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C41">
         <v>84</v>
@@ -1740,10 +1713,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C42">
         <v>84</v>
@@ -1751,10 +1724,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>84</v>
@@ -1762,10 +1735,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C44">
         <v>84</v>
@@ -1773,10 +1746,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>84</v>
@@ -1784,10 +1757,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C46">
         <v>84</v>
@@ -1795,10 +1768,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C47">
         <v>84</v>
@@ -1806,10 +1779,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C48">
         <v>84</v>
@@ -1817,10 +1790,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <v>84</v>
@@ -1828,10 +1801,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C50">
         <v>84</v>
@@ -1839,10 +1812,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C51">
         <v>84</v>
@@ -1850,10 +1823,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>84</v>
@@ -1861,10 +1834,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="C53">
         <v>84</v>
@@ -1872,10 +1845,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>84</v>
@@ -1883,10 +1856,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C55">
         <v>84</v>
@@ -1894,10 +1867,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C58">
         <v>108</v>
@@ -1905,10 +1878,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="C59">
         <v>108</v>
@@ -1916,10 +1889,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C60">
         <v>108</v>
@@ -1927,10 +1900,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="C61">
         <v>108</v>
@@ -1938,10 +1911,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C62">
         <v>108</v>
@@ -1949,10 +1922,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C63">
         <v>108</v>
@@ -1960,10 +1933,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C64">
         <v>108</v>
@@ -1971,10 +1944,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C65">
         <v>108</v>
@@ -1982,10 +1955,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C66">
         <v>108</v>
@@ -1993,10 +1966,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C67">
         <v>108</v>
@@ -2004,10 +1977,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C68">
         <v>108</v>
@@ -2015,10 +1988,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>108</v>
@@ -2026,10 +1999,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="C70">
         <v>108</v>
@@ -2037,10 +2010,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C71">
         <v>108</v>
@@ -2048,10 +2021,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>108</v>
@@ -2059,10 +2032,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C73">
         <v>108</v>
@@ -2070,180 +2043,351 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="C75">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>158</v>
+      </c>
+      <c r="C76">
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>159</v>
+      </c>
+      <c r="C77">
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>160</v>
+      </c>
+      <c r="C79">
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>161</v>
+      </c>
+      <c r="C80">
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>162</v>
+      </c>
+      <c r="C81">
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>163</v>
+      </c>
+      <c r="C82">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>164</v>
+      </c>
+      <c r="C83">
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C85">
         <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>166</v>
+      </c>
+      <c r="C86">
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>167</v>
+      </c>
+      <c r="C88">
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>168</v>
+      </c>
+      <c r="C89">
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>169</v>
+      </c>
+      <c r="C91">
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>170</v>
+      </c>
+      <c r="C92">
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>171</v>
+      </c>
+      <c r="C93">
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>172</v>
+      </c>
+      <c r="C94">
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>28</v>
+      </c>
+      <c r="C95">
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>173</v>
+      </c>
+      <c r="C97">
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="C99">
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>174</v>
+      </c>
+      <c r="C101">
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>175</v>
+      </c>
+      <c r="C103">
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>176</v>
+      </c>
+      <c r="C104">
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>177</v>
+      </c>
+      <c r="C105">
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>178</v>
+      </c>
+      <c r="C106">
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>179</v>
+      </c>
+      <c r="C107">
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>309</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C109">
         <v>45</v>
@@ -2251,1060 +2395,1949 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>309</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>181</v>
+      </c>
+      <c r="C110">
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>105</v>
+      </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>34</v>
+      </c>
+      <c r="C111">
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>105</v>
+      </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>35</v>
+      </c>
+      <c r="C112">
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>105</v>
+      </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>36</v>
+      </c>
+      <c r="C113">
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>182</v>
+      </c>
+      <c r="C114">
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C116">
         <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>184</v>
+      </c>
+      <c r="C117">
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>185</v>
+      </c>
+      <c r="C118">
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>37</v>
+      </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>186</v>
+      </c>
+      <c r="C119">
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>37</v>
+      </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>187</v>
+      </c>
+      <c r="C120">
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>188</v>
+      </c>
+      <c r="C121">
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>189</v>
+      </c>
+      <c r="C122">
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>38</v>
+      </c>
+      <c r="C123">
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>39</v>
+      </c>
+      <c r="C124">
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>37</v>
+      </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>190</v>
+      </c>
+      <c r="C125">
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>37</v>
+      </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>40</v>
+      </c>
+      <c r="C126">
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="C128">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
       <c r="B129" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
       <c r="B130" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="C130">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
       <c r="B131" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C131">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
       <c r="B132" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C132">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>41</v>
+      </c>
       <c r="B133" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="C133">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>41</v>
+      </c>
       <c r="B134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C134">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>41</v>
+      </c>
       <c r="B135" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C135">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>41</v>
+      </c>
       <c r="B136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C136">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
       <c r="B137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="C137">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>41</v>
+      </c>
       <c r="B138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C138">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>41</v>
+      </c>
       <c r="B139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="C139">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>41</v>
+      </c>
       <c r="B140" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="C140">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>41</v>
+      </c>
       <c r="B141" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="C141">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>41</v>
+      </c>
       <c r="B142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C142">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>41</v>
+      </c>
       <c r="B143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C143">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>41</v>
+      </c>
       <c r="B144" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C144">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>41</v>
+      </c>
       <c r="B145" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C145">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>41</v>
+      </c>
       <c r="B146" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C146">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>41</v>
+      </c>
       <c r="B147" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C147">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>41</v>
+      </c>
       <c r="B148" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="C148">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>41</v>
+      </c>
       <c r="B149" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="C149">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="C151">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>53</v>
+      </c>
       <c r="B152" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="C152">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>53</v>
+      </c>
       <c r="B153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="C153">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>53</v>
+      </c>
       <c r="B154" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="C154">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>53</v>
+      </c>
       <c r="B155" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C155">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>53</v>
+      </c>
       <c r="B156" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C156">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>53</v>
+      </c>
       <c r="B157" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="C157">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>53</v>
+      </c>
       <c r="B158" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C158">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>53</v>
+      </c>
       <c r="B159" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="C159">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>53</v>
+      </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>57</v>
+      </c>
+      <c r="C160">
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>53</v>
+      </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>58</v>
+      </c>
+      <c r="C161">
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>53</v>
+      </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>59</v>
+      </c>
+      <c r="C162">
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>53</v>
+      </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>208</v>
+      </c>
+      <c r="C163">
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>53</v>
+      </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>209</v>
+      </c>
+      <c r="C164">
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>53</v>
+      </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="C165">
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="C167">
         <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>106</v>
+      </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>212</v>
+      </c>
+      <c r="C168">
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>106</v>
+      </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>213</v>
+      </c>
+      <c r="C169">
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>106</v>
+      </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>214</v>
+      </c>
+      <c r="C170">
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>106</v>
+      </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>60</v>
+      </c>
+      <c r="C171">
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>106</v>
+      </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>61</v>
+      </c>
+      <c r="C172">
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>106</v>
+      </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>62</v>
+      </c>
+      <c r="C173">
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>106</v>
+      </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>215</v>
+      </c>
+      <c r="C174">
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>106</v>
+      </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>216</v>
+      </c>
+      <c r="C175">
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>106</v>
+      </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>217</v>
+      </c>
+      <c r="C176">
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>106</v>
+      </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>218</v>
+      </c>
+      <c r="C177">
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>106</v>
+      </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>219</v>
+      </c>
+      <c r="C178">
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>106</v>
+      </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>63</v>
+      </c>
+      <c r="C179">
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>106</v>
+      </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>220</v>
+      </c>
+      <c r="C180">
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>106</v>
+      </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>221</v>
+      </c>
+      <c r="C181">
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="C183">
         <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>64</v>
+      </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>223</v>
+      </c>
+      <c r="C184">
+        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>64</v>
+      </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>224</v>
+      </c>
+      <c r="C185">
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>64</v>
+      </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>225</v>
+      </c>
+      <c r="C186">
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>64</v>
+      </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>226</v>
+      </c>
+      <c r="C187">
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>64</v>
+      </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>227</v>
+      </c>
+      <c r="C188">
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>64</v>
+      </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>228</v>
+      </c>
+      <c r="C189">
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>64</v>
+      </c>
       <c r="B190" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>192</v>
+        <v>229</v>
+      </c>
+      <c r="C190">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>65</v>
+      </c>
+      <c r="B192" t="s">
+        <v>230</v>
+      </c>
+      <c r="C192">
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C193">
         <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>65</v>
+      </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>232</v>
+      </c>
+      <c r="C194">
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>65</v>
+      </c>
       <c r="B195" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>197</v>
+        <v>233</v>
+      </c>
+      <c r="C195">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
+        <v>234</v>
+      </c>
+      <c r="C197">
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>235</v>
+      </c>
+      <c r="C198">
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>66</v>
+      </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>236</v>
+      </c>
+      <c r="C199">
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>66</v>
+      </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>237</v>
+      </c>
+      <c r="C200">
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>66</v>
+      </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>238</v>
+      </c>
+      <c r="C201">
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>66</v>
+      </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>239</v>
+      </c>
+      <c r="C202">
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>66</v>
+      </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>240</v>
+      </c>
+      <c r="C203">
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>66</v>
+      </c>
       <c r="B204" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>206</v>
+        <v>241</v>
+      </c>
+      <c r="C204">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>67</v>
+      </c>
+      <c r="B206" t="s">
+        <v>242</v>
+      </c>
+      <c r="C206">
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C207">
         <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>67</v>
+      </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>244</v>
+      </c>
+      <c r="C208">
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>67</v>
+      </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>245</v>
+      </c>
+      <c r="C209">
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>67</v>
+      </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>68</v>
+      </c>
+      <c r="C210">
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>67</v>
+      </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>246</v>
+      </c>
+      <c r="C211">
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>67</v>
+      </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>247</v>
+      </c>
+      <c r="C212">
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>67</v>
+      </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>248</v>
+      </c>
+      <c r="C213">
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>67</v>
+      </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>249</v>
+      </c>
+      <c r="C214">
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>67</v>
+      </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>250</v>
+      </c>
+      <c r="C215">
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>67</v>
+      </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>69</v>
+      </c>
+      <c r="C216">
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>67</v>
+      </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>70</v>
+      </c>
+      <c r="C217">
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>67</v>
+      </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>251</v>
+      </c>
+      <c r="C218">
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>67</v>
+      </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>252</v>
+      </c>
+      <c r="C219">
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>67</v>
+      </c>
       <c r="B220" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>222</v>
+        <v>253</v>
+      </c>
+      <c r="C220">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>71</v>
+      </c>
+      <c r="B222" t="s">
+        <v>254</v>
+      </c>
+      <c r="C222">
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C223">
         <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>71</v>
+      </c>
       <c r="B224" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C224">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>71</v>
+      </c>
       <c r="B225" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C225">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>71</v>
+      </c>
       <c r="B226" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="C226">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>71</v>
+      </c>
       <c r="B227" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="C227">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>71</v>
+      </c>
       <c r="B228" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="C228">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>71</v>
+      </c>
       <c r="B229" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C229">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>71</v>
+      </c>
       <c r="B230" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="C230">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>71</v>
+      </c>
       <c r="B231" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="C231">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>71</v>
+      </c>
       <c r="B232" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="C232">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>71</v>
+      </c>
       <c r="B233" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="C233">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>71</v>
+      </c>
       <c r="B234" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="C234">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>71</v>
+      </c>
       <c r="B235" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="C235">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>71</v>
+      </c>
       <c r="B236" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C236">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>71</v>
+      </c>
       <c r="B237" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="C237">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>71</v>
+      </c>
       <c r="B238" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C238">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>71</v>
+      </c>
       <c r="B239" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="C239">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>107</v>
+      </c>
+      <c r="B241" t="s">
+        <v>267</v>
+      </c>
+      <c r="C241">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>311</v>
+        <v>107</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C242">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>107</v>
+      </c>
       <c r="B243" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="C243">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>107</v>
+      </c>
       <c r="B244" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="C244">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>107</v>
+      </c>
       <c r="B245" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C245">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>107</v>
+      </c>
       <c r="B246" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C246">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>107</v>
+      </c>
       <c r="B247" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="C247">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>80</v>
+      </c>
+      <c r="B249" t="s">
+        <v>271</v>
+      </c>
+      <c r="C249">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="C250">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>80</v>
+      </c>
       <c r="B251" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="C251">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>80</v>
+      </c>
       <c r="B252" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C252">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>80</v>
+      </c>
       <c r="B253" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C253">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>80</v>
+      </c>
       <c r="B254" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="C254">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>83</v>
+      </c>
+      <c r="B256" t="s">
+        <v>275</v>
+      </c>
+      <c r="C256">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="B257" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="C257">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>83</v>
+      </c>
       <c r="B258" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C258">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>83</v>
+      </c>
       <c r="B259" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C259">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>83</v>
+      </c>
       <c r="B260" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C260">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>83</v>
+      </c>
       <c r="B261" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C261">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>87</v>
+      </c>
+      <c r="B263" t="s">
+        <v>278</v>
+      </c>
+      <c r="C263">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="B264" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C264">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>87</v>
+      </c>
       <c r="B265" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C265">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>87</v>
+      </c>
       <c r="B266" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="C266">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>87</v>
+      </c>
       <c r="B267" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="C267">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>87</v>
+      </c>
       <c r="B268" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="C268">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>87</v>
+      </c>
       <c r="B269" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="C269">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>87</v>
+      </c>
       <c r="B270" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="C270">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>87</v>
+      </c>
       <c r="B271" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C271">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>87</v>
+      </c>
       <c r="B272" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="C272">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>87</v>
+      </c>
       <c r="B273" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C273">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>87</v>
+      </c>
       <c r="B274" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="C274">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>87</v>
+      </c>
       <c r="B275" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="C275">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>87</v>
+      </c>
       <c r="B276" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="C276">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>87</v>
+      </c>
       <c r="B277" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="C277">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>87</v>
+      </c>
       <c r="B278" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C278">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>95</v>
+      </c>
+      <c r="B280" t="s">
+        <v>287</v>
+      </c>
+      <c r="C280">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>95</v>
+      </c>
+      <c r="B281" t="s">
+        <v>288</v>
+      </c>
+      <c r="C281">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>95</v>
+      </c>
       <c r="B282" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="C282">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>95</v>
+      </c>
       <c r="B283" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="C283">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>95</v>
+      </c>
       <c r="B284" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C284">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>95</v>
+      </c>
       <c r="B285" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="C285">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>95</v>
+      </c>
       <c r="B286" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="C286">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>95</v>
+      </c>
       <c r="B287" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C287">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>95</v>
+      </c>
       <c r="B288" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="C288">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>95</v>
+      </c>
       <c r="B289" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="C289">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>95</v>
+      </c>
       <c r="B290" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="C290">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>98</v>
+      </c>
       <c r="B292" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="C292">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>98</v>
+      </c>
       <c r="B293" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="C293">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>98</v>
+      </c>
       <c r="B294" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C294">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>98</v>
+      </c>
       <c r="B295" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C295">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>98</v>
+      </c>
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>98</v>
+      </c>
       <c r="B297" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="C297">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>101</v>
+      </c>
+      <c r="B299" t="s">
+        <v>300</v>
+      </c>
+      <c r="C299">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>101</v>
+      </c>
       <c r="B300" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="C300">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>101</v>
+      </c>
       <c r="B301" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="C301">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>101</v>
+      </c>
       <c r="B302" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+      <c r="C302">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
